--- a/other/input/AQWMS/taurianen_site_names_matching_table.xlsx
+++ b/other/input/AQWMS/taurianen_site_names_matching_table.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t xml:space="preserve">sample_location</t>
+    <t xml:space="preserve">sample</t>
   </si>
   <si>
     <t xml:space="preserve">RM_0_No_Name_Creek</t>
